--- a/GaussDistribution/GaussDistribution/Результаты.xlsx
+++ b/GaussDistribution/GaussDistribution/Результаты.xlsx
@@ -8,29 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github sync\Shared Projects\SOV\GaussDistribution\GaussDistribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED9E6CF-4138-4708-96FE-CEEC4013A351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB90302-45BB-4FA5-9890-6E8BFD623DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сейф" sheetId="2" r:id="rId1"/>
     <sheet name="Выборка 1" sheetId="1" r:id="rId2"/>
-    <sheet name="Выборка 2" sheetId="3" r:id="rId3"/>
-    <sheet name="Выборка 3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Выборка 2" sheetId="3" r:id="rId4"/>
+    <sheet name="Выборка 3" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Выборка 1'!$C$18:$C$317</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Выборка 1'!$A$18:$A$317</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Выборка 3'!$C$19:$C$318</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Выборка 3'!$A$19:$A$318</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Выборка 1'!$A$18:$A$317</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Выборка 1'!$G$18:$G$317</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Выборка 1'!$A$18:$A$317</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Выборка 1'!$G$18:$G$317</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Выборка 1'!$C$18:$C$317</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Выборка 2'!$A$19:$A$318</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'Выборка 2'!$G$19:$G$318</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Выборка 2'!$A$19:$A$318</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Выборка 2'!$A$19:$A$318</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Выборка 2'!$C$19:$C$318</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Выборка 3'!$G$19:$G$318</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Выборка 3'!$G$19:$G$318</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Выборка 2'!$C$19:$C$318</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Выборка 3'!$A$19:$A$318</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Выборка 3'!$G$19:$G$318</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Выборка 3'!$C$19:$C$318</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="227">
   <si>
     <t>Pure distribution (shift: 1.000000e+00, scale 1.250000e+00):</t>
   </si>
@@ -402,6 +400,339 @@
   <si>
     <t>Асимметричная</t>
   </si>
+  <si>
+    <t>Pure distribution (shift: 0.000000e+00, scale 1.000000e+00):</t>
+  </si>
+  <si>
+    <t>Arithmetic Mean: -1.472534e-04</t>
+  </si>
+  <si>
+    <t>Dispersion: 4.434704e-01</t>
+  </si>
+  <si>
+    <t>Assymetry Coefficient: -8.405534e-04</t>
+  </si>
+  <si>
+    <t>Kurtosis Coefficient: -2.881311e-01</t>
+  </si>
+  <si>
+    <t>Sample Median: -5.403024e-04</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 5.000000e-02): -1.454219e-04</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 1.000000e-01): -1.169362e-04</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 1.500000e-01): -1.362249e-04</t>
+  </si>
+  <si>
+    <t>MLE: -2.442940e-05</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 1.000000e-01): -1.660937e-06</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 5.000000e-01): 7.201936e-05</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 1.000000e+00): 1.771649e-04</t>
+  </si>
+  <si>
+    <t>Symmetrical dirt distribution (shift: 0.000000e+00, scale 3.000000e+00):</t>
+  </si>
+  <si>
+    <t>Arithmetic Mean: -7.876373e-05</t>
+  </si>
+  <si>
+    <t>Dispersion: 3.252202e-01</t>
+  </si>
+  <si>
+    <t>Assymetry Coefficient: 3.221228e-05</t>
+  </si>
+  <si>
+    <t>Kurtosis Coefficient: 5.533183e-01</t>
+  </si>
+  <si>
+    <t>Sample Median: -3.498440e-04</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 5.000000e-02): -9.754061e-05</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 1.000000e-01): -1.017974e-04</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 1.500000e-01): -1.068279e-04</t>
+  </si>
+  <si>
+    <t>MLE: -9.715234e-04</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 1.000000e-01): -8.891463e-04</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 5.000000e-01): -6.225685e-04</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 1.000000e+00): -3.559907e-04</t>
+  </si>
+  <si>
+    <t>Asymmetrical dirt distribution (shift: 1.500000e+00, scale 1.250000e+00):</t>
+  </si>
+  <si>
+    <t>Arithmetic Mean: 3.599402e-01</t>
+  </si>
+  <si>
+    <t>Dispersion: 6.981759e-01</t>
+  </si>
+  <si>
+    <t>Assymetry Coefficient: 3.988752e-02</t>
+  </si>
+  <si>
+    <t>Kurtosis Coefficient: -5.334398e-01</t>
+  </si>
+  <si>
+    <t>Sample Median: 3.904017e-01</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 5.000000e-02): 3.563328e-01</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 1.000000e-01): 3.508788e-01</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 1.500000e-01): 3.490584e-01</t>
+  </si>
+  <si>
+    <t>MLE: 3.541628e-01</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 1.000000e-01): 3.489372e-01</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 5.000000e-01): 3.248741e-01</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 1.000000e+00): 2.932566e-01</t>
+  </si>
+  <si>
+    <t>Arithmetic Mean: -2.405410e-04</t>
+  </si>
+  <si>
+    <t>Dispersion: 4.445951e-01</t>
+  </si>
+  <si>
+    <t>Assymetry Coefficient: -6.067399e-04</t>
+  </si>
+  <si>
+    <t>Kurtosis Coefficient: -2.852014e-01</t>
+  </si>
+  <si>
+    <t>Sample Median: 7.807331e-05</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 5.000000e-02): -2.851785e-04</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 1.000000e-01): -3.407465e-04</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 1.500000e-01): -3.505081e-04</t>
+  </si>
+  <si>
+    <t>MLE: -3.191506e-04</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 1.000000e-01): -3.733843e-04</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 5.000000e-01): -6.399621e-04</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 1.000000e+00): -9.520768e-04</t>
+  </si>
+  <si>
+    <t>Arithmetic Mean: -7.352431e-04</t>
+  </si>
+  <si>
+    <t>Dispersion: 3.246742e-01</t>
+  </si>
+  <si>
+    <t>Assymetry Coefficient: -1.133862e-02</t>
+  </si>
+  <si>
+    <t>Kurtosis Coefficient: 5.442455e-01</t>
+  </si>
+  <si>
+    <t>Sample Median: 2.830673e-05</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 5.000000e-02): -5.429133e-04</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 1.000000e-01): -4.941188e-04</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 1.500000e-01): -3.576474e-04</t>
+  </si>
+  <si>
+    <t>MLE: -1.122577e-02</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 1.000000e-01): -1.097864e-02</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 5.000000e-01): -1.008451e-02</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 1.000000e+00): -9.123347e-03</t>
+  </si>
+  <si>
+    <t>Arithmetic Mean: 3.608726e-01</t>
+  </si>
+  <si>
+    <t>Dispersion: 6.985881e-01</t>
+  </si>
+  <si>
+    <t>Assymetry Coefficient: 3.978502e-02</t>
+  </si>
+  <si>
+    <t>Kurtosis Coefficient: -5.266748e-01</t>
+  </si>
+  <si>
+    <t>Sample Median: 3.914857e-01</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 5.000000e-02): 3.572401e-01</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 1.000000e-01): 3.519123e-01</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 1.500000e-01): 3.502087e-01</t>
+  </si>
+  <si>
+    <t>MLE: 3.546256e-01</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 1.000000e-01): 3.494335e-01</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 5.000000e-01): 3.257053e-01</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 1.000000e+00): 2.946015e-01</t>
+  </si>
+  <si>
+    <t>Arithmetic Mean: 3.793657e-03</t>
+  </si>
+  <si>
+    <t>Dispersion: 4.422852e-01</t>
+  </si>
+  <si>
+    <t>Assymetry Coefficient: -2.455565e-02</t>
+  </si>
+  <si>
+    <t>Kurtosis Coefficient: -3.018995e-01</t>
+  </si>
+  <si>
+    <t>Sample Median: 3.693313e-03</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 5.000000e-02): 4.850951e-03</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 1.000000e-01): 5.194838e-03</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 1.500000e-01): 5.565058e-03</t>
+  </si>
+  <si>
+    <t>MLE: 2.535419e-03</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 1.000000e-01): 2.895124e-03</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 5.000000e-01): 3.670036e-03</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 1.000000e+00): 3.978828e-03</t>
+  </si>
+  <si>
+    <t>Arithmetic Mean: 1.313852e-03</t>
+  </si>
+  <si>
+    <t>Dispersion: 3.250191e-01</t>
+  </si>
+  <si>
+    <t>Assymetry Coefficient: -5.033742e-03</t>
+  </si>
+  <si>
+    <t>Kurtosis Coefficient: 5.447048e-01</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 5.000000e-02): 1.387254e-03</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 1.000000e-01): 1.563580e-03</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 1.500000e-01): 1.476146e-03</t>
+  </si>
+  <si>
+    <t>MLE: -4.748365e-03</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 1.000000e-01): -4.767812e-03</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 5.000000e-01): -4.804652e-03</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 1.000000e+00): -4.767812e-03</t>
+  </si>
+  <si>
+    <t>Arithmetic Mean: 3.630326e-01</t>
+  </si>
+  <si>
+    <t>Dispersion: 6.942449e-01</t>
+  </si>
+  <si>
+    <t>Assymetry Coefficient: 2.997128e-02</t>
+  </si>
+  <si>
+    <t>Kurtosis Coefficient: -5.120802e-01</t>
+  </si>
+  <si>
+    <t>Sample Median: 4.007729e-01</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 5.000000e-02): 3.599405e-01</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 1.000000e-01): 3.548158e-01</t>
+  </si>
+  <si>
+    <t>Trimmed Mean (ALPHA = 1.500000e-01): 3.535713e-01</t>
+  </si>
+  <si>
+    <t>MLE: 3.551728e-01</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 1.000000e-01): 3.500175e-01</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 5.000000e-01): 3.260402e-01</t>
+  </si>
+  <si>
+    <t>Radical (DELTA = 1.000000e+00): 2.946893e-01</t>
+  </si>
+  <si>
+    <t>Sample Median:</t>
+  </si>
 </sst>
 </file>
 
@@ -11146,7 +11477,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -11235,7 +11566,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -11302,7 +11633,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -11369,7 +11700,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -11458,7 +11789,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -11592,7 +11923,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -11659,7 +11990,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -11726,7 +12057,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -22042,8 +22373,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11687766" y="2622462"/>
-              <a:ext cx="4572000" cy="2758966"/>
+              <a:off x="11685664" y="2607748"/>
+              <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -22192,8 +22523,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11366615" y="5273386"/>
-              <a:ext cx="4548794" cy="2727614"/>
+              <a:off x="11422380" y="5303520"/>
+              <a:ext cx="4573039" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -22306,8 +22637,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11347739" y="8084127"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="11403504" y="8129847"/>
+              <a:ext cx="4596245" cy="2758786"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -22539,8 +22870,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10519317" y="6169412"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="10456127" y="6071281"/>
+              <a:ext cx="4545980" cy="2701569"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -22653,8 +22984,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10454268" y="9050144"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="10391078" y="8907408"/>
+              <a:ext cx="4545980" cy="2698596"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -23349,7 +23680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O317"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="80" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -28627,6 +28958,458 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53863C4B-5F72-4F6F-9D7F-7CA885B9D62D}">
+  <dimension ref="A1:O47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" t="s">
+        <v>131</v>
+      </c>
+      <c r="O4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" t="s">
+        <v>133</v>
+      </c>
+      <c r="O6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" t="s">
+        <v>135</v>
+      </c>
+      <c r="O8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" t="s">
+        <v>136</v>
+      </c>
+      <c r="O9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" t="s">
+        <v>137</v>
+      </c>
+      <c r="O10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" t="s">
+        <v>138</v>
+      </c>
+      <c r="O11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>129</v>
+      </c>
+      <c r="O17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" t="s">
+        <v>168</v>
+      </c>
+      <c r="O20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>156</v>
+      </c>
+      <c r="H21" t="s">
+        <v>169</v>
+      </c>
+      <c r="O21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" t="s">
+        <v>170</v>
+      </c>
+      <c r="O22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" t="s">
+        <v>171</v>
+      </c>
+      <c r="O23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" t="s">
+        <v>172</v>
+      </c>
+      <c r="O24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" t="s">
+        <v>173</v>
+      </c>
+      <c r="O25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>161</v>
+      </c>
+      <c r="H26" t="s">
+        <v>174</v>
+      </c>
+      <c r="O26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" t="s">
+        <v>175</v>
+      </c>
+      <c r="O27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" t="s">
+        <v>176</v>
+      </c>
+      <c r="O28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29" t="s">
+        <v>177</v>
+      </c>
+      <c r="O29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>165</v>
+      </c>
+      <c r="H30" t="s">
+        <v>178</v>
+      </c>
+      <c r="O30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>129</v>
+      </c>
+      <c r="O33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>203</v>
+      </c>
+      <c r="O35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>191</v>
+      </c>
+      <c r="H36" t="s">
+        <v>204</v>
+      </c>
+      <c r="O36" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>192</v>
+      </c>
+      <c r="H37" t="s">
+        <v>205</v>
+      </c>
+      <c r="O37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>193</v>
+      </c>
+      <c r="H38" t="s">
+        <v>206</v>
+      </c>
+      <c r="O38" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>194</v>
+      </c>
+      <c r="H39" t="s">
+        <v>226</v>
+      </c>
+      <c r="O39" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>195</v>
+      </c>
+      <c r="H40" t="s">
+        <v>207</v>
+      </c>
+      <c r="O40" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>196</v>
+      </c>
+      <c r="H41" t="s">
+        <v>208</v>
+      </c>
+      <c r="O41" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>197</v>
+      </c>
+      <c r="H42" t="s">
+        <v>209</v>
+      </c>
+      <c r="O42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>198</v>
+      </c>
+      <c r="H43" t="s">
+        <v>210</v>
+      </c>
+      <c r="O43" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>199</v>
+      </c>
+      <c r="H44" t="s">
+        <v>211</v>
+      </c>
+      <c r="O44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>200</v>
+      </c>
+      <c r="H45" t="s">
+        <v>212</v>
+      </c>
+      <c r="O45" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>201</v>
+      </c>
+      <c r="H46" t="s">
+        <v>213</v>
+      </c>
+      <c r="O46" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E94FDC-F16C-4948-861C-FE89C3A38A0C}">
   <dimension ref="A1:P318"/>
   <sheetViews>
@@ -33902,7 +34685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCB4412-FEEB-42FD-BCF9-18A43B76FE68}">
   <dimension ref="A1:O318"/>
   <sheetViews>
